--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/10/seed3/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44500000000001</v>
+        <v>16.4482</v>
       </c>
     </row>
     <row r="4">
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.1098</v>
+        <v>-7.015100000000001</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -601,7 +601,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.008499999999998</v>
+        <v>4.708399999999996</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.9877</v>
+        <v>5.088199999999998</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.975999999999999</v>
+        <v>-7.904100000000002</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>7.530999999999998</v>
+        <v>7.418599999999994</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>17.846</v>
+        <v>17.6719</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.4911</v>
+        <v>16.60850000000001</v>
       </c>
     </row>
     <row r="20">
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.443700000000002</v>
+        <v>-7.647699999999997</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.4948</v>
+        <v>16.48599999999999</v>
       </c>
     </row>
     <row r="28">
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.619200000000001</v>
+        <v>-6.503699999999997</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.792499999999994</v>
+        <v>-7.7709</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.507100000000003</v>
+        <v>-8.547000000000006</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.878700000000002</v>
+        <v>8.938399999999996</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.302099999999996</v>
+        <v>-8.533499999999991</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.46729999999999</v>
+        <v>16.61180000000001</v>
       </c>
     </row>
     <row r="43">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.3546</v>
+        <v>16.54309999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.4259</v>
+        <v>16.3817</v>
       </c>
     </row>
     <row r="48">
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.3656</v>
+        <v>5.460399999999996</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.50950000000001</v>
+        <v>16.44400000000001</v>
       </c>
     </row>
     <row r="59">
@@ -1587,13 +1587,13 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>5.003299999999996</v>
+        <v>4.834199999999996</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.972099999999998</v>
+        <v>-6.471499999999999</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.25230000000001</v>
+        <v>17.17860000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.567100000000002</v>
+        <v>-7.516299999999994</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>9.086000000000007</v>
+        <v>9.317700000000007</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.412900000000002</v>
+        <v>9.819800000000003</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-7.804299999999995</v>
+        <v>-7.959199999999998</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.110999999999994</v>
+        <v>-7.181299999999997</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>17.94510000000002</v>
+        <v>17.98560000000002</v>
       </c>
     </row>
     <row r="96">
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.774400000000003</v>
+        <v>-7.7379</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.640400000000001</v>
+        <v>-8.726300000000004</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2154,10 +2154,10 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.962099999999997</v>
+        <v>-7.953499999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>16.66339999999999</v>
+        <v>16.6845</v>
       </c>
     </row>
     <row r="102">
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.836399999999997</v>
+        <v>-7.818799999999999</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
